--- a/Data/Parameters/Parámetros Revisión de Asientos Manuales de Compensación.xlsx
+++ b/Data/Parameters/Parámetros Revisión de Asientos Manuales de Compensación.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_RPA_CORP\Downloads\VOTORANTIM_001_RT1_SOX-rfernandez\VOTORANTIM_001_RT1_SOX-rfernandez\Data\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_RPA_CORP\Documents\UiPath\VOTOR-SOX-2024-002 Controles SOX-EAA-01.74.1-AR y SOX-EAA-02.74.1-AP y GL\Data\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DADEE5-F099-4F7E-AC48-6879BCE6550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC57A891-28E0-44AB-8731-D47210BCEFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="9705" xr2:uid="{D9BD6469-DA06-4086-A45A-FED19CB1C737}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D9BD6469-DA06-4086-A45A-FED19CB1C737}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <t>E002, E009, E026, E033, E061</t>
   </si>
   <si>
-    <t>lucy.serrano@vcimentos.com;javier.martin@vcimentos.com</t>
+    <t>lucy.serrano@vcimentos.com;javier.martin@vcimentos.com;sat@rpatechnologies.es</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -249,7 +249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3675D7FC-4954-4306-83A3-4337972F2C8C}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J2:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,13 +731,13 @@
       <c r="I2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -779,13 +778,13 @@
       <c r="I3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" t="s">
         <v>40</v>
       </c>
       <c r="M3" s="6" t="s">
@@ -826,13 +825,13 @@
       <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
       <c r="M4" s="6" t="s">

--- a/Data/Parameters/Parámetros Revisión de Asientos Manuales de Compensación.xlsx
+++ b/Data/Parameters/Parámetros Revisión de Asientos Manuales de Compensación.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_RPA_CORP\Documents\UiPath\VOTOR-SOX-2024-002 Controles SOX-EAA-01.74.1-AR y SOX-EAA-02.74.1-AP y GL\Data\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC57A891-28E0-44AB-8731-D47210BCEFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E23E96-54BD-4D99-9CCA-78A1E886F04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D9BD6469-DA06-4086-A45A-FED19CB1C737}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13305" xr2:uid="{D9BD6469-DA06-4086-A45A-FED19CB1C737}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Country</t>
   </si>
@@ -68,18 +68,12 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>Morocco</t>
-  </si>
-  <si>
     <t>GCP.333</t>
   </si>
   <si>
     <t>EGP.600</t>
   </si>
   <si>
-    <t>EGP.500</t>
-  </si>
-  <si>
     <t xml:space="preserve">Materiality for P&amp;L Accounts </t>
   </si>
   <si>
@@ -98,12 +92,6 @@
     <t>TRY</t>
   </si>
   <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>AT01, AT02, BT03</t>
-  </si>
-  <si>
     <t>Doc Type</t>
   </si>
   <si>
@@ -111,12 +99,6 @@
   </si>
   <si>
     <t>Rest</t>
-  </si>
-  <si>
-    <t>D4, DF</t>
-  </si>
-  <si>
-    <t>AB, 04, ZV</t>
   </si>
   <si>
     <t>AB, D4, DF, KG</t>
@@ -195,20 +177,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -217,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -241,9 +214,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -313,8 +283,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B29D83D-A116-446C-B3EA-D6623573689C}" name="Tabla1" displayName="Tabla1" ref="A1:O4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:O4" xr:uid="{4B29D83D-A116-446C-B3EA-D6623573689C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B29D83D-A116-446C-B3EA-D6623573689C}" name="Tabla1" displayName="Tabla1" ref="A1:O3" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:O3" xr:uid="{4B29D83D-A116-446C-B3EA-D6623573689C}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{9890A73C-0205-449F-94D0-C7430146DA63}" name="Country" dataDxfId="11"/>
     <tableColumn id="8" xr3:uid="{0DE1735B-1BB7-4569-A6E9-D48469E3A62B}" name="Companies" dataDxfId="10"/>
@@ -633,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3675D7FC-4954-4306-83A3-4337972F2C8C}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,28 +637,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>4</v>
@@ -697,10 +667,10 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -708,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
@@ -723,31 +693,31 @@
         <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -755,10 +725,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="8">
         <v>300</v>
@@ -767,81 +737,34 @@
         <v>300000</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8">
-        <v>100</v>
-      </c>
-      <c r="E4" s="8">
-        <v>100000</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
